--- a/토이프로젝트스케쥴.xlsx
+++ b/토이프로젝트스케쥴.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sobfy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\class\cook_king\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18588" windowHeight="8352"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18588" windowHeight="8352" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="스케줄" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -97,6 +97,78 @@
 5. 핀
 6. npm기능들 다양하게 사용해보기
 7. aop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만들어야되는 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainPage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recipe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요리정보페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRUD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchLayOut</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름,태그검색 등등</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기하면 포인트 지급기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QR읽고 쓰기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -233,29 +305,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,7 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -549,7 +621,7 @@
     <col min="8" max="8" width="8.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="1" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
@@ -575,15 +647,15 @@
       <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
@@ -591,22 +663,22 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <v>20</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="6">
         <v>21</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="7">
         <v>22</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
@@ -631,13 +703,13 @@
       <c r="H4" s="4">
         <v>29</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
@@ -652,15 +724,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" s="6" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:15" s="12" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>8</v>
@@ -686,13 +758,13 @@
       <c r="H7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
@@ -713,13 +785,13 @@
       <c r="H8" s="4">
         <v>5</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
@@ -744,13 +816,13 @@
       <c r="H9" s="4">
         <v>12</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
@@ -775,13 +847,13 @@
       <c r="H10" s="4">
         <v>19</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
@@ -806,66 +878,66 @@
       <c r="H11" s="4">
         <v>26</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -888,13 +960,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>